--- a/data/syllabus643.xlsx
+++ b/data/syllabus643.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Units</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Quiz 4</t>
-  </si>
-  <si>
-    <t>LSWR Ch 13</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -80,12 +77,6 @@
     <t>Assignment 5</t>
   </si>
   <si>
-    <t xml:space="preserve">LSWR Ch </t>
-  </si>
-  <si>
-    <t>LSWR Ch</t>
-  </si>
-  <si>
     <t>Introduction to the General Linear Model and bivariate regression refresher</t>
   </si>
   <si>
@@ -108,6 +99,24 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>LSWR Ch 15.1-15.2 and 15.4-15.7</t>
+  </si>
+  <si>
+    <t>LSWR Ch 15.8-15.9</t>
+  </si>
+  <si>
+    <t>LSWR Ch 15.3</t>
+  </si>
+  <si>
+    <t>LSWR Ch 14 and 16.6</t>
+  </si>
+  <si>
+    <t>LSWR Ch 16.2</t>
+  </si>
+  <si>
+    <t>LSWR Ch 15.10-15.11</t>
   </si>
 </sst>
 </file>
@@ -431,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -470,13 +479,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -490,13 +499,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -510,13 +519,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -530,16 +539,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -550,19 +559,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -570,39 +579,39 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/syllabus643.xlsx
+++ b/data/syllabus643.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Units</t>
   </si>
@@ -117,6 +117,24 @@
   </si>
   <si>
     <t>LSWR Ch 15.10-15.11</t>
+  </si>
+  <si>
+    <t>1 - 3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5 - 6</t>
+  </si>
+  <si>
+    <t>7 - 8</t>
   </si>
 </sst>
 </file>
@@ -440,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +467,7 @@
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
     <col min="3" max="3" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="112.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
@@ -478,8 +496,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -498,8 +516,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
@@ -518,8 +536,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
@@ -538,8 +556,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
@@ -558,8 +576,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -578,8 +596,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -598,7 +616,7 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">

--- a/data/syllabus643.xlsx
+++ b/data/syllabus643.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Units</t>
   </si>
@@ -38,29 +38,14 @@
     <t>Assignments</t>
   </si>
   <si>
-    <t>Quizzes</t>
-  </si>
-  <si>
-    <t>Quiz 1</t>
-  </si>
-  <si>
     <t>Assignment 1</t>
-  </si>
-  <si>
-    <t>Quiz 2</t>
   </si>
   <si>
     <t xml:space="preserve">
 Assignment 2</t>
   </si>
   <si>
-    <t>Quiz 3</t>
-  </si>
-  <si>
     <t>Assingment 3</t>
-  </si>
-  <si>
-    <t>Quiz 4</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -68,9 +53,6 @@
 </t>
   </si>
   <si>
-    <t>Quiz 5</t>
-  </si>
-  <si>
     <t>Final</t>
   </si>
   <si>
@@ -119,22 +101,22 @@
     <t>LSWR Ch 15.10-15.11</t>
   </si>
   <si>
-    <t>1 - 3</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>5 - 6</t>
   </si>
   <si>
     <t>7 - 8</t>
+  </si>
+  <si>
+    <t>1 - 2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9 - 10</t>
   </si>
 </sst>
 </file>
@@ -456,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,15 +451,14 @@
     <col min="3" max="3" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -488,148 +469,124 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/syllabus643.xlsx
+++ b/data/syllabus643.xlsx
@@ -45,9 +45,6 @@
 Assignment 2</t>
   </si>
   <si>
-    <t>Assingment 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Assignment 4
 </t>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>9 - 10</t>
+  </si>
+  <si>
+    <t>Assignment 3</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -475,13 +475,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -492,13 +492,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
@@ -509,16 +509,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -526,16 +526,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,16 +543,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -560,33 +560,33 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/syllabus643.xlsx
+++ b/data/syllabus643.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daviddl\Documents\EDUC\EDUC 643\643\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daviddl\Documents\EDUC\EDUC643_23W\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,9 +80,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>LSWR Ch 15.1-15.2 and 15.4-15.7</t>
-  </si>
-  <si>
     <t>LSWR Ch 15.8-15.9</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>Assignment 3</t>
+  </si>
+  <si>
+    <t>LSWR Ch 15.1-15.2 and 15.4-15.7; Ch. 5.7</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,13 +475,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -492,13 +492,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
@@ -509,16 +509,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -526,13 +526,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -543,13 +543,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -560,13 +560,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>

--- a/data/syllabus643.xlsx
+++ b/data/syllabus643.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daviddl\Documents\EDUC\EDUC643_23W\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daviddl\Documents\EDUC\EDUC 643\643\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43F5E04-6111-4491-8A6A-6F68FFF178C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Units</t>
   </si>
@@ -41,88 +42,84 @@
     <t>Assignment 1</t>
   </si>
   <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Introduction to the General Linear Model and bivariate regression refresher</t>
+  </si>
+  <si>
+    <t>Regression assumptions, diagnostics and residuals</t>
+  </si>
+  <si>
+    <t>Multiple regression</t>
+  </si>
+  <si>
+    <t>Categorical predictors and ANOVA</t>
+  </si>
+  <si>
+    <t>Interactions and non-linearity</t>
+  </si>
+  <si>
+    <t>Model building and regression taxonomies</t>
+  </si>
+  <si>
+    <t>Weeks</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>LSWR Ch 15.8-15.9</t>
+  </si>
+  <si>
+    <t>LSWR Ch 15.3</t>
+  </si>
+  <si>
+    <t>LSWR Ch 14 and 16.6</t>
+  </si>
+  <si>
+    <t>LSWR Ch 15.10-15.11</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5 - 6</t>
+  </si>
+  <si>
+    <t>1 - 2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Assignment 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-Assignment 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Assignment 4
+Assignment 3
 </t>
   </si>
   <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Assignment 5</t>
-  </si>
-  <si>
-    <t>Introduction to the General Linear Model and bivariate regression refresher</t>
-  </si>
-  <si>
-    <t>Regression assumptions, diagnostics and residuals</t>
-  </si>
-  <si>
-    <t>Multiple regression</t>
-  </si>
-  <si>
-    <t>Categorical predictors and ANOVA</t>
-  </si>
-  <si>
-    <t>Interactions and non-linearity</t>
-  </si>
-  <si>
-    <t>Model building and regression taxonomies</t>
-  </si>
-  <si>
-    <t>Weeks</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>LSWR Ch 15.8-15.9</t>
-  </si>
-  <si>
-    <t>LSWR Ch 15.3</t>
-  </si>
-  <si>
-    <t>LSWR Ch 14 and 16.6</t>
-  </si>
-  <si>
-    <t>LSWR Ch 16.2</t>
-  </si>
-  <si>
-    <t>LSWR Ch 15.10-15.11</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5 - 6</t>
-  </si>
-  <si>
-    <t>7 - 8</t>
-  </si>
-  <si>
-    <t>1 - 2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9 - 10</t>
-  </si>
-  <si>
-    <t>Assignment 3</t>
-  </si>
-  <si>
-    <t>LSWR Ch 15.1-15.2 and 15.4-15.7; Ch. 5.7</t>
+    <t>Assignment 4</t>
+  </si>
+  <si>
+    <t>LSWR Ch 15.1-15.2 and 15.4-15.7; Ch. 5.7 &lt;br&gt; [Hu 2021](https://www.bostonreview.net/articles/race-policing-and-the-limits-of-social-science/)</t>
+  </si>
+  <si>
+    <t>7 - 9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>LSWR Ch 16.2 &lt;br&gt; [Campbell &amp; Ramey 1994](https://srcd.onlinelibrary.wiley.com/doi/abs/10.1111/j.1467-8624.1994.tb00777.x)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,11 +434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -475,33 +472,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -509,16 +506,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -526,16 +523,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,16 +540,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,30 +560,30 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
